--- a/Final data and analysis.xlsx
+++ b/Final data and analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\Dropbox\JHU\SEMESTER 2\Decision analytic\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FF73103F-1A17-480B-BBFD-0A44D16EC48C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A8143C4-E95B-4385-AB92-4E2CC33BE63A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020"/>
   </bookViews>
@@ -723,6 +723,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Career</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> type upon graduation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -761,17 +791,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tabula-Career-Outcome-ADA-Table'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>z-score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -796,10 +815,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'tabula-Career-Outcome-ADA-Table'!$C$2:$C$30</c:f>
+              <c:f>'tabula-Career-Outcome-ADA-Table'!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-1.9414637574754656</c:v>
                 </c:pt>
@@ -868,10 +887,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tabula-Career-Outcome-ADA-Table'!$E$2:$E$30</c:f>
+              <c:f>'tabula-Career-Outcome-ADA-Table'!$E$2:$E$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-2.0872013157557565</c:v>
                 </c:pt>
@@ -941,7 +960,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE2D-47FA-B6B9-CF7F54F56239}"/>
+              <c16:uniqueId val="{00000000-A17E-4BD6-ADBD-B1297D9115F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -953,11 +972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1279872896"/>
-        <c:axId val="1090579728"/>
+        <c:axId val="1009950432"/>
+        <c:axId val="845517696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1279872896"/>
+        <c:axId val="1009950432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,12 +1033,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090579728"/>
+        <c:crossAx val="845517696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1090579728"/>
+        <c:axId val="845517696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,7 +1058,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1076,7 +1095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1279872896"/>
+        <c:crossAx val="1009950432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1693,22 +1712,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
+      <xdr:colOff>85912</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>133723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>153146</xdr:colOff>
+      <xdr:colOff>115794</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:rowOff>75452</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9C47F8-C9DD-42BC-B39C-80C96521CD60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCF2B4D-6BB8-4D60-8871-B7AC88FC3DCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2086,7 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>-2.0872013157557565</v>
       </c>
       <c r="F2" s="5"/>
@@ -2085,7 +2104,7 @@
       <c r="D3" s="2">
         <v>0.32</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.16778145625046292</v>
       </c>
       <c r="F3" s="5"/>
@@ -2103,7 +2122,7 @@
       <c r="D4" s="2">
         <v>0.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1.4362092655039613</v>
       </c>
       <c r="F4" s="5"/>
@@ -2121,7 +2140,7 @@
       <c r="D5" s="2">
         <v>0.67</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>2.6341688631322655</v>
       </c>
       <c r="F5" s="5"/>
@@ -2139,7 +2158,7 @@
       <c r="D6" s="2">
         <v>0.38</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.59059072600162899</v>
       </c>
       <c r="F6" s="5"/>
@@ -2157,7 +2176,7 @@
       <c r="D7" s="2">
         <v>0.27</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>-0.18455960187550877</v>
       </c>
       <c r="F7" s="5"/>
@@ -2175,7 +2194,7 @@
       <c r="D8" s="2">
         <v>0.30000000000000004</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>2.684503300007449E-2</v>
       </c>
       <c r="F8" s="5"/>
@@ -2193,7 +2212,7 @@
       <c r="D9" s="2">
         <v>0.45000000000000007</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>1.0838682073779899</v>
       </c>
       <c r="F9" s="5"/>
@@ -2211,7 +2230,7 @@
       <c r="D10" s="2">
         <v>0.3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>2.6845033000074101E-2</v>
       </c>
       <c r="F10" s="5"/>
@@ -2229,7 +2248,7 @@
       <c r="D11" s="2">
         <v>0.44</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>1.013399995752795</v>
       </c>
       <c r="F11" s="5"/>
@@ -2247,7 +2266,7 @@
       <c r="D12" s="2">
         <v>0.27</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>-0.18455960187550877</v>
       </c>
       <c r="F12" s="5"/>
@@ -2265,7 +2284,7 @@
       <c r="D13" s="2">
         <v>0.19</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>-0.74830529487706365</v>
       </c>
       <c r="F13" s="5"/>
@@ -2283,7 +2302,7 @@
       <c r="D14" s="2">
         <v>0.25</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>-0.32549602512589759</v>
       </c>
       <c r="F14" s="5"/>
@@ -2301,7 +2320,7 @@
       <c r="D15" s="2">
         <v>0.31</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>9.7313244625268511E-2</v>
       </c>
       <c r="F15" s="5"/>
@@ -2319,7 +2338,7 @@
       <c r="D16" s="2">
         <v>0.22</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>-0.53690066000148062</v>
       </c>
       <c r="F16" s="5"/>
@@ -2337,7 +2356,7 @@
       <c r="D17" s="2">
         <v>0.26</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>-0.25502781350070319</v>
       </c>
       <c r="F17" s="5"/>
@@ -2355,7 +2374,7 @@
       <c r="D18" s="2">
         <v>0.26</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>-0.25502781350070319</v>
       </c>
       <c r="F18" s="5"/>
@@ -2373,7 +2392,7 @@
       <c r="D19" s="2">
         <v>0.38</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.59059072600162899</v>
       </c>
       <c r="F19" s="5"/>
@@ -2391,7 +2410,7 @@
       <c r="D20" s="2">
         <v>0.19</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>-0.74830529487706365</v>
       </c>
       <c r="F20" s="5"/>
@@ -2409,7 +2428,7 @@
       <c r="D21" s="2">
         <v>0.18000000000000002</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>-0.81877350650225789</v>
       </c>
       <c r="F21" s="5"/>
@@ -2427,7 +2446,7 @@
       <c r="D22" s="2">
         <v>0.08</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>-1.5234556227542015</v>
       </c>
       <c r="F22" s="5"/>

--- a/Final data and analysis.xlsx
+++ b/Final data and analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\Dropbox\JHU\SEMESTER 2\Decision analytic\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A8143C4-E95B-4385-AB92-4E2CC33BE63A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9AD563F9-E418-417D-A882-8F32101F05E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="33">
   <si>
     <t>Biochemistry and Molecular Biology</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>distance1</t>
+  </si>
+  <si>
+    <t>distance2</t>
+  </si>
+  <si>
+    <t>distance3</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -296,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +486,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -637,7 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,6 +668,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1711,16 +1735,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85912</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56027</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133723</xdr:rowOff>
+      <xdr:rowOff>14194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>115794</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>75452</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339910</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2045,9 +2069,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -2056,10 +2080,11 @@
     <col min="1" max="1" width="38.81640625" customWidth="1"/>
     <col min="2" max="3" width="17.36328125" customWidth="1"/>
     <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2072,15 +2097,24 @@
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>-1.9414637574754656</v>
       </c>
       <c r="D2" s="2">
@@ -2089,9 +2123,23 @@
       <c r="E2" s="3">
         <v>-2.0872013157557565</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>2.8633086877309673</v>
+      </c>
+      <c r="H2">
+        <v>3.4582777221607111</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2107,9 +2155,23 @@
       <c r="E3" s="3">
         <v>0.16778145625046292</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>2.2549827720062194</v>
+      </c>
+      <c r="G3">
+        <v>2.1685560567068118</v>
+      </c>
+      <c r="H3">
+        <v>3.8081699613614282</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2125,9 +2187,23 @@
       <c r="E4" s="3">
         <v>1.4362092655039613</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>3.6286241697061494</v>
+      </c>
+      <c r="G4">
+        <v>2.0604814948591623</v>
+      </c>
+      <c r="H4">
+        <v>3.9031250719840216</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2143,9 +2219,23 @@
       <c r="E5" s="3">
         <v>2.6341688631322655</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>4.811185319429752</v>
+      </c>
+      <c r="G5">
+        <v>3.0692202578988645</v>
+      </c>
+      <c r="H5">
+        <v>4.8445481897295926</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2161,9 +2251,23 @@
       <c r="E6" s="3">
         <v>0.59059072600162899</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>2.8525608517072336</v>
+      </c>
+      <c r="G6">
+        <v>1.3923434334784683</v>
+      </c>
+      <c r="H6">
+        <v>3.2200502003687181</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2179,9 +2283,23 @@
       <c r="E7" s="3">
         <v>-0.18455960187550877</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>2.1687860379047659</v>
+      </c>
+      <c r="G7">
+        <v>1.0987858712520722</v>
+      </c>
+      <c r="H7">
+        <v>2.7229741506665968</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2197,9 +2315,23 @@
       <c r="E8" s="3">
         <v>2.684503300007449E-2</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>2.4097622643386289</v>
+      </c>
+      <c r="G8">
+        <v>1.0055968941083648</v>
+      </c>
+      <c r="H8">
+        <v>2.7368362960412491</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2215,9 +2347,23 @@
       <c r="E9" s="3">
         <v>1.0838682073779899</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>3.6146433965079434</v>
+      </c>
+      <c r="G9">
+        <v>1.3314597168204509</v>
+      </c>
+      <c r="H9">
+        <v>3.1001262221350712</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2233,9 +2379,23 @@
       <c r="E10" s="3">
         <v>2.6845033000074101E-2</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>2.7348047330766883</v>
+      </c>
+      <c r="G10">
+        <v>0.45669222664157988</v>
+      </c>
+      <c r="H10">
+        <v>2.2838732804659725</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2251,16 +2411,30 @@
       <c r="E11" s="3">
         <v>1.013399995752795</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>3.6408496396592942</v>
+      </c>
+      <c r="G11">
+        <v>1.2200892122248563</v>
+      </c>
+      <c r="H11">
+        <v>2.9489751706641192</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="4">
         <v>0.37</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>0.19827714969962218</v>
       </c>
       <c r="D12" s="2">
@@ -2269,9 +2443,23 @@
       <c r="E12" s="3">
         <v>-0.18455960187550877</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>2.8633086877309673</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>1.8469799197379797</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2287,9 +2475,23 @@
       <c r="E13" s="3">
         <v>-0.74830529487706365</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>2.7734768581928999</v>
+      </c>
+      <c r="G13">
+        <v>0.63357662855349572</v>
+      </c>
+      <c r="H13">
+        <v>1.2519549610914706</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2305,9 +2507,23 @@
       <c r="E14" s="3">
         <v>-0.32549602512589759</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>3.1426146277610192</v>
+      </c>
+      <c r="G14">
+        <v>0.48363729007327899</v>
+      </c>
+      <c r="H14">
+        <v>1.4458944216164713</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2323,9 +2539,23 @@
       <c r="E15" s="3">
         <v>9.7313244625268511E-2</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>3.397723507306178</v>
+      </c>
+      <c r="G15">
+        <v>0.54175110017909789</v>
+      </c>
+      <c r="H15">
+        <v>1.8117381715850644</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2341,9 +2571,23 @@
       <c r="E16" s="3">
         <v>-0.53690066000148062</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16">
+        <v>3.0789923989299433</v>
+      </c>
+      <c r="G16">
+        <v>0.62852292555220401</v>
+      </c>
+      <c r="H16">
+        <v>1.2403609259174366</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2359,9 +2603,23 @@
       <c r="E17" s="3">
         <v>-0.25502781350070319</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17">
+        <v>3.2779035258352898</v>
+      </c>
+      <c r="G17">
+        <v>0.58258589095110869</v>
+      </c>
+      <c r="H17">
+        <v>1.4458573586031773</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2377,9 +2635,23 @@
       <c r="E18" s="3">
         <v>-0.25502781350070319</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18">
+        <v>3.2779035258352898</v>
+      </c>
+      <c r="G18">
+        <v>0.58258589095110869</v>
+      </c>
+      <c r="H18">
+        <v>1.4458573586031773</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2395,9 +2667,23 @@
       <c r="E19" s="3">
         <v>0.59059072600162899</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19">
+        <v>3.8987803041553266</v>
+      </c>
+      <c r="G19">
+        <v>1.0404097389717966</v>
+      </c>
+      <c r="H19">
+        <v>2.1917190778412965</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2413,9 +2699,23 @@
       <c r="E20" s="3">
         <v>-0.74830529487706365</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20">
+        <v>3.2390494437205493</v>
+      </c>
+      <c r="G20">
+        <v>0.98656610893019525</v>
+      </c>
+      <c r="H20">
+        <v>0.90271810869110547</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2431,16 +2731,30 @@
       <c r="E21" s="3">
         <v>-0.81877350650225789</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21">
+        <v>3.5860130032202471</v>
+      </c>
+      <c r="G21">
+        <v>1.3700766799247397</v>
+      </c>
+      <c r="H21">
+        <v>0.7070511229608325</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="4">
         <v>0.59</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>1.4705555269388635</v>
       </c>
       <c r="D22" s="2">
@@ -2449,9 +2763,23 @@
       <c r="E22" s="3">
         <v>-1.5234556227542015</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22">
+        <v>3.4582777221607111</v>
+      </c>
+      <c r="G22">
+        <v>1.8469799197379797</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2461,41 +2789,50 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5">
-        <f t="shared" ref="D23" si="0">AVERAGE(D2:D22)</f>
+        <f>AVERAGE(D2:D22)</f>
         <v>0.29619047619047617</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3">
+        <v>-1.94</v>
+      </c>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3">
         <v>0.59</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>1.47</v>
+      </c>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="3">
         <v>0.37</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>0.2</v>
+      </c>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2504,13 +2841,67 @@
         <v>0.17291813170430925</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27" si="1">_xlfn.STDEV.P(D2:D22)</f>
+        <f>_xlfn.STDEV.P(D2:D22)</f>
         <v>0.14190795777801066</v>
       </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="6:8">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="6:8">
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="6:8">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="6:8">
+      <c r="F44" s="5"/>
+      <c r="H44" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
-    <sortCondition ref="B1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
